--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramilallahverdiev/Desktop/RaftEval/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B2ACBD-F500-3343-9C59-38D3CF2DC7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB0784B-2BAF-6343-879C-C0B35E8E4F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="1000" windowWidth="27840" windowHeight="15740" xr2:uid="{22332363-C02F-FD44-8315-B8FD636846D7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{22332363-C02F-FD44-8315-B8FD636846D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Посторой программу защиты для нута</t>
   </si>
@@ -232,6 +232,158 @@
   <si>
     <t>Геокс® применяется для обработки яблонь в предуборочный период для защиты от серой гнили и продления срока хранения плодов.</t>
   </si>
+  <si>
+    <t>Действие Апрон Голд , как влияет на всхожесть растений?</t>
+  </si>
+  <si>
+    <t>Апрон® Голд оказывает положительное влияние на всхожесть растений. Он обеспечивает превосходный контроль семенных и почвенных патогенов, таких как ложная мучнистая роса и различные виды гнили, что способствует раннему и дружному появлению всходов. Препарат защищает семена и проростки на ранней стадии роста благодаря быстрому поглощению и равномерному распределению по растительным тканям. Это позволяет не только защитить семена, но и обеспечить здоровое развитие проростков, что в конечном итоге способствует получению более высокого и оздоровленного урожая.</t>
+  </si>
+  <si>
+    <t>Какие разновидности препарата Вайбранс есть, на каких культурах могут применяться?</t>
+  </si>
+  <si>
+    <t>какая форма выпуска ОПИФОЛ Эквилибриум, какие макро- и микро-элементы в составе?</t>
+  </si>
+  <si>
+    <t>ОПИФОЛ Эквилибриум 15-15-15 выпускается в форме растворимых кристаллов. Упаковка составляет 25 кг. В составе удобрения содержатся макроэлементы: азот (N), фосфор (P), калий (K) в соотношении 15:15:15, а также микроэлементы: железо (Fe), цинк (Zn), марганец (Mn), медь (Cu). Эти элементы обеспечивают питание растений и способствуют повышению урожайности и качества зерновых культур.</t>
+  </si>
+  <si>
+    <t>Особенности и нормы расхода для применения Избиона на томате</t>
+  </si>
+  <si>
+    <t>Только ли специфические акарициды способны сдерживать развитие плодовых клещей?</t>
+  </si>
+  <si>
+    <t>Нет, не только акарициды. Существуют инсектициды, которые действуют в первую очередь на яблонную плодожорку при этом обладают акарицидными свойствами. ЛЮФОКС®, ПРОКЛЭЙМ® Фит, МАТЧ® и ПРОКЛЭЙМ® применённые против плодожорки оказывает сдерживающее действие на развитие растительноядных клещей, при этом сохраняют полезные виды насекомых. Отмечается, что при применении перечисленных инсектицидов в системе защиты яблони против плодожорки, акарицидных обработок становится меньше по сравнению с тем, когда применяются фосфорорганика и пиретроиды</t>
+  </si>
+  <si>
+    <t>Нет, не только специфические акарициды способны сдерживать развитие плодовых клещей. Существуют инсектициды, которые, хотя и направлены в первую очередь на борьбу с такими вредителями, как яблонная плодожорка, также обладают акарицидными свойствами. Например, препараты ЛЮФОКС®, ПРОКЛЭЙМ® Фит, МАТЧ® и ПРОКЛЭЙМ®, применяемые против плодожорки, оказывают сдерживающее действие на развитие растительноядных клещей. При этом они сохраняют полезные виды насекомых. Отмечается, что при использовании этих инсектицидов в системе защиты яблони против плодожорки, необходимость в акарицидных обработках снижается по сравнению с использованием фосфорорганических соединений и пиретроидов.</t>
+  </si>
+  <si>
+    <t>Превосходный контроль семенных и почвенных
+патогенов: ложной мучнистой росы, видов гнили (Pythium ѕpp.) и фитофтороза (Phytophthora spp.),
+вызываемых грибоподобными организмами класса
+Оомицеты.
+• Защита семени и проростка на ранней, наиболее
+уязвимой стадии роста благодаря быстрому поглощению препарата и равномерному распределению по растительным тканям.
+• АПРОН® Голд перераспределяется в почве вблизи семян, откуда позже впитывается корнями и затем усваивается растением. Таким образом,
+защищается не только семя, но и проросток на самой ранней и наиболее уязвимой стадии роста.
+• Обеспечивает раннее и дружное появление всходов, их защиту от первичной и вторичной инфекции
+ложной мучнистой росы, что способствует получению более высокого и оздоровленного урожая.
+• Высококонцентрированная препаративная форма
+на водной основе не содержит органических растворителей и твердых частиц.       Предназначен как для промышленного применения
+на семенных заводах, так и для использования в небольших хозяйствах. Хорошо совместим с другими
+препаратами для предпосевной обработки семян.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВАЙБРАНС®  : Препарат для улучшения развития корневой системы растения
+и подавления широкого спектра грибных патогенов,
+включая ризоктониозную прикорневую гниль
+.    ВАЙБРАНС® Голд: Золотой стандарт фунгицидной защиты семян сои
+от почвенной и семенной инфекции
+с усиленным контролем аскохитоза и фузариозов. Препарат ВАЙБРАНС® Голд позволяет контролировать максимальный спектр почвенной и семенной
+инфекции сои и нута. ВАЙБРАНС® Интеграл: Готовый SDHI-инсектофунгицид для длительной
+защиты семян зерновых колосовых культур
+от максимального спектра болезней и вредителей.  ВАЙБРАНС® КРУЙЗЕР® Макс : Сила корней (Rooting Power™)
+и эффект жизненной силы (Vigor™ Effect) —
+теперь вместе для суперсильной сои,  предназначен для защиты семян и молодых растений сои от комплекса
+болезней и вредителей. ВАЙБРАНС® Топ: Комбинированный инсектофунгицидный препарат
+для комплексной защиты картофеля от болезней
+и вредителей на начальных этапах вегетации культуры. ВАЙБРАНС® Трио: Фунгицидный препарат для защиты семян озимой
+пшеницы и ячменя. ВАЙБРАНС® Экстра: Первый препарат для защиты семян сахарной свеклы
+с новейшим SDHI-фунгицидом — молекулой седаксана.
+Создает новое измерение контроля болезней,
+позволяющее реализовывать генетический
+потенциал гибрида сахарной свеклы.  </t>
+  </si>
+  <si>
+    <t>Существует несколько разновидностей препарата ВАЙБРАНС, каждая из которых предназначена для защиты различных культур:
+1. Вайбранс® Экстра:
+   - Культура: Сахарная свекла.
+   - Назначение: Защита семян и всходов от основных болезней, таких как питиоз, ризоктониоз и фомоз.
+   - Особенности: Содержит SDHI-фунгицид седаксан, который обеспечивает контроль болезней и способствует развитию корневой системы. Препарат безопасен для семян и всходов, и его эффективность сохраняется в течение двух лет с момента нанесения на семена.
+2. Вайбранс® Топ:
+   - Культура: Картофель.
+   - Назначение: Защита от болезней и вредителей на начальных этапах вегетации.
+   - Особенности: Содержит SDHI-инсектофунгицид седаксан, который защищает клубни и проростки от патогенов, а также обеспечивает длительную защиту от почвенных и надземных вредителей. Препарат совместим с биостимуляторами и другими средствами для обработки семян.
+Обе разновидности ВАЙБРАНС обладают уникальными свойствами и механизмами действия, которые обеспечивают надежную защиту культур на начальных этапах их развития.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОПИФОЛ Эквилибриум 15-15-15 — новое водорастворимое внекорневое удобрение для зерновых культур,
+содержащее комбинацию макро- и микроэлементов для повышения урожайности и качества урожая. Содержит N, К, P, Fe, Zn,
+Mn, Сu
+питание растений в виде растворимых
+кристаллов
+</t>
+  </si>
+  <si>
+    <t>Некорневая подкормка растений 2–4 раза в течение вегетации: при высоте
+растений 10 см или после высадки рассады, перед цветением, в начале
+образования плодов, при изменении цвета плодов во время созревания. Норма
+расхода
+препарата, л/га 1,0–2,0                                                                                              Корневая подкормка растений 2–4 раза в течение вегетации: при высоте
+растений 10 см или после высадки рассады, перед цветением, в начале
+образования плодов, при изменении цвета плодов во время созревания Нормы расхода 2,0–5,0</t>
+  </si>
+  <si>
+    <t>Для применения Изабиона на томатах рекомендуется следующая схема:
+1. Некорневая подкормка:
+   - Норма расхода препарата: 1,0–2,0 л/га.
+   - Норма расхода рабочей жидкости: 200–400 л/га.
+   - Применение: 2–4 раза в течение вегетации. Начинайте при высоте растений 10 см или после высадки рассады, затем перед цветением, в начале образования плодов и при изменении цвета плодов во время созревания.
+2. Корневая подкормка:
+   - Норма расхода препарата: 2,0–5,0 л/га.
+   - Норма расхода рабочей жидкости зависит от нормы полива.
+   - Применение: 2–4 раза в течение вегетации. Начинайте при высоте растений 10 см или после высадки рассады, затем перед цветением, в начале образования плодов и при изменении цвета плодов во время созревания.
+Изабион помогает улучшить завязываемость плодов, повышает фертильность пыльцы, уменьшает осыпание завязи и способствует лучшему усвоению растением элементов питания. Это делает его эффективным средством для повышения урожайности и качества томатов.</t>
+  </si>
+  <si>
+    <t>Какова рекомендованная густота высева для подсолнечника Си Авенжер в условиях умеренной влагообеспеченности?</t>
+  </si>
+  <si>
+    <t>При умеренной влагообеспеченности рекомендуется густота 47-52 тыс./га, с учетом полевой всхожести семян и возможного увеличения нормы высева на 10-15% при использовании гербицидов, не требующих боронования.</t>
+  </si>
+  <si>
+    <t>Для подсолнечника Си Авенжер в условиях умеренной влагообеспеченности рекомендуется густота высева 47-52 тыс./га. При этом следует учитывать полевую всхожесть семян и возможность увеличения нормы высева на 10-15% при использовании гербицидов, которые не требуют боронования. Это поможет обеспечить оптимальную густоту стояния растений и повысить эффективность выращивания подсолнечника.</t>
+  </si>
+  <si>
+    <t>Для подсолнечника Си Авенжер при умеренной влагообеспеченности рекомендуется густота высева 47–52 тыс. семян на гектар. При использовании гербицидов, не требующих боронования, норму высева можно увеличить на 10–15% для компенсации потерь и обеспечения оптимальной густоты стояния.</t>
+  </si>
+  <si>
+    <t>Апрон® Голд улучшает всхожесть растений, обеспечивая защиту от семенных и почвенных патогенов, таких как ложная мучнистая роса и гнили. Он способствует раннему и дружному появлению всходов и оздоравливает урожай благодаря быстрому проникновению и распределению в тканях.</t>
+  </si>
+  <si>
+    <t>Существует несколько разновидностей препарата ВАЙБРАНС®, каждая из которых применяется для определённых культур:
+ВАЙБРАНС® Экстра — для защиты семян сахарной свеклы от питиоза, ризоктониоза и фомоза. Содержит седаксан, способствует развитию корней.
+ВАЙБРАНС® Топ — используется на картофеле для защиты от болезней и вредителей в начале вегетации.
+ВАЙБРАНС® Голд — применяется для сои и нута, защищает от семенной и почвенной инфекции, фузариоза и аскохитоза.
+ВАЙБРАНС® Интеграл — готовый SDHI-инсектофунгицид для зерновых колосовых культур, защищает от широкого спектра болезней и вредителей.
+ВАЙБРАНС® КРУЙЗЕР® Макс — комплексная защита сои от болезней и вредителей, усиливает развитие корней.
+ВАЙБРАНС® Трио — для защиты семян озимой пшеницы и ячменя.</t>
+  </si>
+  <si>
+    <t>ОПИФОЛ Эквилибриум 15-15-15 выпускается в форме водорастворимых кристаллов, упаковка — 25 кг.
+В составе удобрения содержатся:
+Макроэлементы: азот (N), фосфор (P), калий (K) в соотношении 15:15:15;
+Микроэлементы: железо (Fe), цинк (Zn), марганец (Mn), медь (Cu).
+Препарат предназначен для внекорневого питания зерновых культур и способствует повышению урожайности и качества продукции.</t>
+  </si>
+  <si>
+    <t>Для применения Изабиона на томатах рекомендуются следующие схемы:
+1. Некорневая подкормка:
+Норма расхода препарата: 1,0–2,0 л/га.
+Объём рабочей жидкости: 200–400 л/га.
+Применение: 2–4 раза в течение вегетации — при высоте растений 10 см или после высадки рассады, перед цветением, в начале образования плодов, при изменении цвета плодов во время созревания.
+2. Корневая подкормка:
+Норма расхода препарата: 2,0–5,0 л/га.
+Объём рабочей жидкости зависит от нормы полива.
+Применение: также 2–4 раза в те же фазы развития.
+Изабион улучшает завязываемость плодов, повышает фертильность пыльцы, уменьшает осыпание завязи и способствует лучшему усвоению питательных веществ, повышая урожайность и качество томатов.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нет, не только специфические акарициды способны сдерживать развитие плодовых клещей. Некоторые инсектициды, такие как ЛЮФОКС®, ПРОКЛЭЙМ® Фит, МАТЧ® и ПРОКЛЭЙМ®, применяемые против яблонной плодожорки, также обладают акарицидными свойствами. Эти препараты оказывают сдерживающее действие на развитие растительноядных клещей и при этом сохраняют полезных насекомых. Применение таких инсектицидов в системе защиты яблони снижает необходимость в отдельных акарицидных обработках по сравнению с использованием фосфорорганических соединений и пиретроидов.
+</t>
+  </si>
 </sst>
 </file>
 
@@ -309,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -335,6 +487,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -672,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33AE636D-61D7-2E41-9E64-8A89B7834C02}">
   <dimension ref="A1:D959"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -681,7 +836,7 @@
     <col min="1" max="1" width="48.83203125" customWidth="1"/>
     <col min="2" max="2" width="57.5" customWidth="1"/>
     <col min="3" max="3" width="62.83203125" customWidth="1"/>
-    <col min="4" max="4" width="28.5" style="8" customWidth="1"/>
+    <col min="4" max="4" width="34.83203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -768,35 +923,89 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+    <row r="7" spans="1:4" ht="187" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="345" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="356" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="404" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
